--- a/ds4owd_precourse_survey.xlsx
+++ b/ds4owd_precourse_survey.xlsx
@@ -2442,7 +2442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9070,6 +9070,26 @@
       </c>
       <c r="D331" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>yes_only</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ds4owd_precourse_survey.xlsx
+++ b/ds4owd_precourse_survey.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,19 +541,28 @@
           <t>body::jr:requiredMsg</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>begin group</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>personal_info</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Personal Information</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -572,29 +581,34 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>github_username</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Please provide your GitHub username</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>This field is required</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -611,41 +625,46 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>orcid_id</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Please provide your ORCID iD (e.g. 0000-0003-2196-5015)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>This field is required</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>regex(., '^[0-9]{4}-[0-9]{4}-[0-9]{4}-[0-9]{3}[0-9X]$')</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Please enter a valid ORCID iD format</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -658,41 +677,46 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>email</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Your email address</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>This field is required</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>regex(., '^[^@]+@[^@]+\.[^@]+$')</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
+          <t>regex(., '^[^@]+@[^@]+.[^@]+$')</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Please enter a valid email address</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -705,29 +729,34 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>first_name</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>This field is required</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -744,29 +773,34 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>surname</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Surname</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>This field is required</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -783,24 +817,29 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>select_one countries</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>country_residence</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Country of Residence</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -818,9 +857,14 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>end group</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -841,19 +885,24 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>begin group</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>education_employment</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Education and Employment</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -872,24 +921,29 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>select_one education_level</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>education</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Education Level</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -907,24 +961,29 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>select_one employment_status</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>employment_situation</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>What is your current employment situation?</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -942,31 +1001,36 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>organisation_name</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>If employed or self-employed what is the name of the organisation / instituiton?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>${employment_situation}='employed_fulltime' or ${employment_situation}='employed_parttime' or ${employment_situation}='self_employed'</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -981,31 +1045,36 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>select_one organisation_type</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>org_type</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>If employed or self-employed what best describes the organisation you work for?</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>${employment_situation}='employed_fulltime' or ${employment_situation}='employed_parttime' or ${employment_situation}='self_employed'</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1020,9 +1089,14 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>end group</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1043,19 +1117,24 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>begin group</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>barriers</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Barriers to Participation</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1074,19 +1153,24 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>barriers_intro</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Which of the following barriers apply to your complete participation in this course?</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1105,24 +1189,29 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>select_one barrier_scale</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>barrier_time</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Time availability</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1140,24 +1229,29 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>select_one barrier_scale</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>barrier_supervisor</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>My supervisors interests</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1175,24 +1269,29 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>select_one barrier_scale</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>barrier_internet</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Access to stable internet</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1210,24 +1309,29 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>select_one barrier_scale</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>barrier_electricity</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Access to electricity</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1245,24 +1349,29 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>select_one barrier_scale</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>barrier_computer</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Access to computer/laptop</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1280,24 +1389,29 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>select_one barrier_scale</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>barrier_screen</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Access to second external screen</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1315,9 +1429,14 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>end group</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1338,19 +1457,24 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>begin group</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>technical_experience</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Technical Experience</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1369,24 +1493,29 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>select_one programming_exp</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>prog_general</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Experience with programming in general</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1404,24 +1533,29 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>select_one programming_exp</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>prog_r</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Experience with programming in R</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1439,24 +1573,29 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>select_one programming_exp</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>prog_python</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Experience with programming in Python</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1474,35 +1613,40 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>select_multiple prog_languages</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>other_languages</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Which other programming languages / software do you have experience in?</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>appearance</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -1513,24 +1657,29 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>select_one git_exp</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>git_experience</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Which of these best describes your experience with using Git?</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1548,24 +1697,29 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>select_one github_exp</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>github_experience</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Which of these best describes your experience with using GitHub?</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1583,24 +1737,29 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>select_one data_storage</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>data_format</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>In which format do you store the majority of your data?</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1618,24 +1777,29 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>select_one doc_writing</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>narrative_docs</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Which of these best describes how you write narrative documents that include text and analysis?</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1653,35 +1817,40 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>select_multiple ide_list</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>ide_used</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Which of the following Integrated Development Environments (IDEs) have you used?</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>appearance</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -1692,24 +1861,29 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>select_one ide_exp</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>ide_experience</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Which of these best describes your experience with using IDEs?</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1727,24 +1901,29 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>select_one cli_exp</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>cli_usage</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Which of these best describes your current usage of the default command-line interface?</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1762,35 +1941,40 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>select_multiple llm_tools</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>llm_platforms</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Which Large Language Model tools/platforms have you used?</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>appearance</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -1801,19 +1985,24 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>llm_usage_intro</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>How frequently do you use Large Language Models for the following tasks?</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
@@ -1832,24 +2021,29 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>llm_summarization</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Summarization</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1867,24 +2061,29 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>llm_translation</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Translation</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1902,24 +2101,29 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>llm_qa</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Question Answering</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1937,24 +2141,29 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>llm_conversation</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Conversational Assistance</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1972,24 +2181,29 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>llm_data_analysis</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Data Analysis/Extraction</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -2007,24 +2221,29 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>llm_content_gen</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Content Generation (e.g. images, videos)</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -2042,24 +2261,29 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>llm_learning</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Learning/Teaching/Tutoring</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -2077,24 +2301,29 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>llm_automation</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Agentic Task Automation</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2112,9 +2341,14 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>end group</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
@@ -2135,19 +2369,24 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>begin group</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>project_participation</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Project and Course Participation</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -2166,35 +2405,40 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>learning_goals</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>What do you want to know or be able to do that you don't know or can't do right now?</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>paragraph</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2205,24 +2449,29 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>select_one data_available</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>data_availability</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Can you identify a dataset of your own or your organisation that you can use for the capstone project report and share publicly as open data (see details in survey description Step 3)?</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2240,24 +2489,29 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>select_one mentorship</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>mentorship_interest</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>We are launching a mentorship programme that brings together participants with different levels of experience, so they can support and learn from each other in small groups. Are you interested in joining this mentorship programme?</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2275,9 +2529,14 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>end group</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
@@ -2298,19 +2557,24 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>begin group</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>agreements</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Agreements and Consent</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
@@ -2329,29 +2593,34 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>select_one yes_only</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>code_conduct</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>I acknowledge that I have read and understood the code of conduct for this course, and I commit to complying with its guidelines and principles to ensure a respectful and ethical learning environment for all participants. Available at: https://ds4owd-002.github.io/website/code_of_conduct.html</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>You must acknowledge the Code of Conduct</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2368,29 +2637,34 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>select_one yes_only</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>data_privacy</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>I agree that by submitting this form, I consent to my data being used for course administration and management, accessed only by instructors, securely stored, not shared with third parties, anonymized for reporting, and potentially used for future research to improve the course. For reporting purposes, your personal identifiers (ORCID iD, GitHub username) will be removed from the data. The anonymized data may be used for future research, scientific publications, and analysis to improve the course.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>You must provide consent</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2407,9 +2681,14 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>end group</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
@@ -2430,6 +2709,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ds4owd_precourse_survey.xlsx
+++ b/ds4owd_precourse_survey.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,14 +1916,10 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Which of these best describes your current usage of the default command-line interface?</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>"Which of these best describes your current usage of the default command-line interface (CLI)?</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1946,35 +1942,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>select_multiple llm_tools</t>
+          <t>On Mac: The default CLI app is Terminal</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>llm_platforms</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Which Large Language Model tools/platforms have you used?</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> and the default shell is Zsh (you may also use Bash or other shells)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>appearance</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -1990,20 +1974,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>On Windows: The default CLI app is Windows Terminal</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>llm_usage_intro</t>
+          <t xml:space="preserve"> which can run Command Prompt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>How frequently do you use Large Language Models for the following tasks?</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t xml:space="preserve"> PowerShell</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and Bash (via Windows Subsystem for Linux)</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -2026,24 +2014,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>select_one llm_freq</t>
+          <t>How would you describe your experience?"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>llm_summarization</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Summarization</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2066,17 +2046,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>select_one llm_freq</t>
+          <t>select_multiple llm_tools</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>llm_translation</t>
+          <t>llm_platforms</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Which Large Language Model tools/platforms have you used?</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2090,7 +2070,11 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>appearance</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -2106,24 +2090,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>select_one llm_freq</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>llm_qa</t>
+          <t>llm_usage_intro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Question Answering</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>How frequently do you use Large Language Models for the following tasks?</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2151,12 +2131,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>llm_conversation</t>
+          <t>llm_summarization</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Conversational Assistance</t>
+          <t>For Summarization (e.g., "Summarize this research paper in 200 words.")</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2191,12 +2171,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>llm_data_analysis</t>
+          <t>llm_translation</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Data Analysis/Extraction</t>
+          <t>Translation (e.g., "Translate this email from English to German.")</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2231,12 +2211,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>llm_content_gen</t>
+          <t>llm_qa</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Content Generation (e.g. images, videos)</t>
+          <t>Question Answering (e.g., "What are the symptoms of vitamin D deficiency?")</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2271,12 +2251,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>llm_learning</t>
+          <t>llm_conversation</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Learning/Teaching/Tutoring</t>
+          <t>Conversational Assistance / Chatbots (e.g., "Help me with my online order")</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2311,12 +2291,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>llm_automation</t>
+          <t>llm_data_analysis</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Agentic Task Automation</t>
+          <t>Data Analysis / Extraction (e.g., "Extract all dates and names from this contract.")</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2346,12 +2326,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>end group</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+          <t>select_one llm_freq</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>llm_content_gen</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Content Generation (e.g. images, videos)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2374,20 +2366,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>begin group</t>
+          <t>select_one llm_freq</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>project_participation</t>
+          <t>llm_learning</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Project and Course Participation</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Learning/Teaching/Tutoring (e.g., "Explain the Pythagorean theorem.")</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2410,17 +2406,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one llm_freq</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>learning_goals</t>
+          <t>llm_automation</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>What do you want to know or be able to do that you don't know or can't do right now?</t>
+          <t>Agentic Task Automation (i.e. LLM acts autonomously or semi-autonomously to perform tasks)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2434,11 +2430,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>paragraph</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2454,24 +2446,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>select_one data_available</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>data_availability</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Can you identify a dataset of your own or your organisation that you can use for the capstone project report and share publicly as open data (see details in survey description Step 3)?</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>end group</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2494,24 +2474,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>select_one mentorship</t>
+          <t>begin group</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>mentorship_interest</t>
+          <t>project_participation</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>We are launching a mentorship programme that brings together participants with different levels of experience, so they can support and learn from each other in small groups. Are you interested in joining this mentorship programme?</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>Project and Course Participation</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2534,19 +2510,35 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>end group</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>learning_goals</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>What do you want to know or be able to do that you don't know or can't do right now?</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>paragraph</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -2562,20 +2554,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>begin group</t>
+          <t>select_one data_available</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>agreements</t>
+          <t>data_availability</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Agreements and Consent</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Can you identify a dataset of your own or your organisation that you can use for the capstone project report and share publicly as open data (see details in survey description Step 3)?</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2598,29 +2594,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>select_one yes_only</t>
+          <t>select_one mentorship</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>code_conduct</t>
+          <t>mentorship_interest</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>I acknowledge that I have read and understood the code of conduct for this course, and I commit to complying with its guidelines and principles to ensure a respectful and ethical learning environment for all participants. Available at: https://ds4owd-002.github.io/website/code_of_conduct.html</t>
+          <t>We are launching a mentorship programme that brings together participants with different levels of experience, so they can support and learn from each other in small groups. Are you interested in joining this mentorship programme?</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>You must acknowledge the Code of Conduct</t>
-        </is>
-      </c>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2642,29 +2634,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>select_one yes_only</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>data_privacy</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>I agree that by submitting this form, I consent to my data being used for course administration and management, accessed only by instructors, securely stored, not shared with third parties, anonymized for reporting, and potentially used for future research to improve the course. For reporting purposes, your personal identifiers (ORCID iD, GitHub username) will be removed from the data. The anonymized data may be used for future research, scientific publications, and analysis to improve the course.</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>You must provide consent</t>
-        </is>
-      </c>
+          <t>end group</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2686,11 +2662,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>end group</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+          <t>begin group</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>agreements</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Agreements and Consent</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
@@ -2711,6 +2695,122 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>select_one yes_only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>code_conduct</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>I acknowledge that I have read and understood the code of conduct for this course, and I commit to complying with its guidelines and principles to ensure a respectful and ethical learning environment for all participants. Available at: https://ds4owd-002.github.io/website/code_of_conduct.html</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>You must acknowledge the Code of Conduct</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>select_one yes_only</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>data_privacy</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>I agree that by submitting this form, I consent to my data being used for course administration and management, accessed only by instructors, securely stored, not shared with third parties, anonymized for reporting, and potentially used for future research to improve the course. For reporting purposes, your personal identifiers (ORCID iD, GitHub username) will be removed from the data. The anonymized data may be used for future research, scientific publications, and analysis to improve the course.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>You must provide consent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>end group</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2722,7 +2822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D332"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2765,7 +2865,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No formal education</t>
+          <t>No formal education (Never attended school)</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2785,7 +2885,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Primary education</t>
+          <t>Primary education (e.g. Elementary school, grades 1–5/6)</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2805,7 +2905,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lower secondary education</t>
+          <t>Lower secondary education (e.g. Middle school, junior high, grades 6–8/9)</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2825,7 +2925,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Upper secondary education</t>
+          <t>Upper secondary education (e.g. High school diploma, A-levels, GED, vocational certificate, trade school diploma)</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -2845,7 +2945,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Postsecondary non-tertiary education</t>
+          <t>Postsecondary non-tertiary education (e.g. Community college certificate, diploma, foundation year)</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2865,7 +2965,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bachelor's degree</t>
+          <t>Bachelor's degree (e.g. BA, BSc, BEng, Bachelor's degree)</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2885,7 +2985,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Master's degree</t>
+          <t>Master's degree (e.g. MA, MSc, MEng, MBA, Master's degree)</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2905,7 +3005,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Doctorate or higher</t>
+          <t>Doctorate or higher (e.g. PhD, EdD, MD, JD, DPhil, professional doctorate)</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3095,21 +3195,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>organisation_type</t>
+          <t>employment_status</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>academia</t>
+          <t>other</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Academia</t>
+          <t>Other specify:</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -3120,16 +3220,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>academia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t>Academia</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3140,16 +3240,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ngo</t>
+          <t>government</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NGO</t>
+          <t>Government</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -3160,16 +3260,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>private_sector</t>
+          <t>ngo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Private sector</t>
+          <t>NGO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3180,16 +3280,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>independent_consultant</t>
+          <t>private_sector</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Independent consultant</t>
+          <t>Private sector</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3200,56 +3300,56 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>multilateral</t>
+          <t>independent_consultant</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Multi-lateral organisation</t>
+          <t>Independent consultant</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>barrier_scale</t>
+          <t>organisation_type</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>not_barrier</t>
+          <t>multilateral</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Not a barrier</t>
+          <t>Multi-lateral organisation</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>barrier_scale</t>
+          <t>organisation_type</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>barrier</t>
+          <t>other</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A barrier</t>
+          <t>Other specify:</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -3260,56 +3360,56 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dont_know</t>
+          <t>not_barrier</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>I don't know</t>
+          <t>Not a barrier</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>programming_exp</t>
+          <t>barrier_scale</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>barrier</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>I have none</t>
+          <t>A barrier</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>programming_exp</t>
+          <t>barrier_scale</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>few_lines</t>
+          <t>dont_know</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I have written a few lines</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -3320,16 +3420,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>own_use</t>
+          <t>none</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I have written programs for own use</t>
+          <t>I have none</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -3340,56 +3440,56 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>maintained</t>
+          <t>few_lines</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>I have written and maintained larger software</t>
+          <t>I have written a few lines</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>countries</t>
+          <t>programming_exp</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>own_use</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>I have written programs for own use</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>countries</t>
+          <t>programming_exp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>maintained</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>I have written and maintained larger software</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3400,16 +3500,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3420,16 +3520,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3440,16 +3540,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AGO</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -3460,16 +3560,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -3480,16 +3580,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3500,16 +3600,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -3520,16 +3620,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -3540,16 +3640,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -3560,16 +3660,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -3580,16 +3680,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3600,16 +3700,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -3620,16 +3720,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -3640,16 +3740,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>BHR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -3660,16 +3760,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>BGD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -3680,16 +3780,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -3700,16 +3800,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -3720,16 +3820,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -3740,16 +3840,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -3760,16 +3860,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -3780,16 +3880,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -3800,16 +3900,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -3820,16 +3920,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -3840,16 +3940,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -3860,16 +3960,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
@@ -3880,16 +3980,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>BRN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
@@ -3900,16 +4000,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
@@ -3920,16 +4020,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
@@ -3940,16 +4040,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BDI</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -3960,16 +4060,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -3980,16 +4080,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -4000,16 +4100,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -4020,16 +4120,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -4040,16 +4140,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -4060,16 +4160,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -4080,16 +4180,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
@@ -4100,16 +4200,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
@@ -4120,16 +4220,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
@@ -4140,16 +4240,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Congo Democratic Republic</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
@@ -4160,16 +4260,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
@@ -4180,16 +4280,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>Congo Democratic Republic</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
@@ -4200,16 +4300,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
@@ -4220,16 +4320,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>CIV</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
@@ -4240,16 +4340,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
@@ -4260,16 +4360,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
@@ -4280,16 +4380,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -4300,16 +4400,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
@@ -4320,16 +4420,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
@@ -4340,16 +4440,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82">
@@ -4360,16 +4460,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>DMA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
@@ -4380,16 +4480,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
@@ -4400,16 +4500,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85">
@@ -4420,16 +4520,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86">
@@ -4440,16 +4540,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
@@ -4460,16 +4560,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88">
@@ -4480,16 +4580,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
@@ -4500,16 +4600,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90">
@@ -4520,16 +4620,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91">
@@ -4540,16 +4640,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
@@ -4560,16 +4660,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>FJI</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93">
@@ -4580,16 +4680,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
@@ -4600,16 +4700,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95">
@@ -4620,16 +4720,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96">
@@ -4640,16 +4740,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97">
@@ -4660,16 +4760,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98">
@@ -4680,16 +4780,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99">
@@ -4700,16 +4800,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100">
@@ -4720,16 +4820,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101">
@@ -4740,16 +4840,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102">
@@ -4760,16 +4860,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103">
@@ -4780,16 +4880,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104">
@@ -4800,16 +4900,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105">
@@ -4820,16 +4920,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106">
@@ -4840,16 +4940,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107">
@@ -4860,16 +4960,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108">
@@ -4880,16 +4980,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
@@ -4900,16 +5000,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110">
@@ -4920,16 +5020,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>India</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
@@ -4940,16 +5040,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112">
@@ -4960,16 +5060,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113">
@@ -4980,16 +5080,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114">
@@ -5000,16 +5100,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115">
@@ -5020,16 +5120,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>ISR</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116">
@@ -5040,16 +5140,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117">
@@ -5060,16 +5160,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
@@ -5080,16 +5180,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
@@ -5100,16 +5200,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120">
@@ -5120,16 +5220,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>KIR</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121">
@@ -5140,16 +5240,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PRK</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Korea Democratic People's Republic</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122">
@@ -5160,16 +5260,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KIR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123">
@@ -5180,16 +5280,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>PRK</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Korea Democratic People's Republic</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124">
@@ -5200,16 +5300,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125">
@@ -5220,16 +5320,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KWT</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126">
@@ -5240,16 +5340,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127">
@@ -5260,16 +5360,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128">
@@ -5280,16 +5380,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129">
@@ -5300,16 +5400,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130">
@@ -5320,16 +5420,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
@@ -5340,16 +5440,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LIE</t>
+          <t>LBR</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132">
@@ -5360,16 +5460,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LBY</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133">
@@ -5380,16 +5480,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LIE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134">
@@ -5400,16 +5500,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135">
@@ -5420,16 +5520,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136">
@@ -5440,16 +5540,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137">
@@ -5460,16 +5560,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138">
@@ -5480,16 +5580,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139">
@@ -5500,16 +5600,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>MDV</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140">
@@ -5520,16 +5620,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141">
@@ -5540,16 +5640,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142">
@@ -5560,16 +5660,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>MHL</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143">
@@ -5580,16 +5680,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144">
@@ -5600,16 +5700,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>MUS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Micronesia</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145">
@@ -5620,16 +5720,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146">
@@ -5640,16 +5740,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Micronesia</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147">
@@ -5660,16 +5760,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148">
@@ -5680,16 +5780,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149">
@@ -5700,16 +5800,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150">
@@ -5720,16 +5820,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="151">
@@ -5740,16 +5840,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152">
@@ -5760,16 +5860,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153">
@@ -5780,16 +5880,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NRU</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154">
@@ -5800,16 +5900,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
@@ -5820,16 +5920,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NRU</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156">
@@ -5840,16 +5940,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157">
@@ -5860,16 +5960,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158">
@@ -5880,16 +5980,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159">
@@ -5900,16 +6000,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160">
@@ -5920,16 +6020,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161">
@@ -5940,16 +6040,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162">
@@ -5960,16 +6060,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163">
@@ -5980,16 +6080,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164">
@@ -6000,16 +6100,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PLW</t>
+          <t>OMN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165">
@@ -6020,16 +6120,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166">
@@ -6040,16 +6140,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PLW</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167">
@@ -6060,16 +6160,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
@@ -6080,16 +6180,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169">
@@ -6100,16 +6200,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170">
@@ -6120,16 +6220,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171">
@@ -6140,16 +6240,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
@@ -6160,16 +6260,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173">
@@ -6180,16 +6280,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174">
@@ -6200,16 +6300,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175">
@@ -6220,16 +6320,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>QAT</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176">
@@ -6240,16 +6340,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>ROU</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177">
@@ -6260,16 +6360,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178">
@@ -6280,16 +6380,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179">
@@ -6300,16 +6400,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180">
@@ -6320,16 +6420,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="181">
@@ -6340,16 +6440,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182">
@@ -6360,16 +6460,16 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183">
@@ -6380,16 +6480,16 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>SMR</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184">
@@ -6400,16 +6500,16 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185">
@@ -6420,16 +6520,16 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="186">
@@ -6440,16 +6540,16 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187">
@@ -6460,16 +6560,16 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188">
@@ -6480,16 +6580,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189">
@@ -6500,16 +6600,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190">
@@ -6520,16 +6620,16 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191">
@@ -6540,16 +6640,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192">
@@ -6560,16 +6660,16 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193">
@@ -6580,16 +6680,16 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194">
@@ -6600,16 +6700,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="195">
@@ -6620,16 +6720,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196">
@@ -6640,16 +6740,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197">
@@ -6660,16 +6760,16 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="198">
@@ -6680,16 +6780,16 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>LKA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199">
@@ -6700,16 +6800,16 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
@@ -6720,16 +6820,16 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="201">
@@ -6740,16 +6840,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="202">
@@ -6760,16 +6860,16 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="203">
@@ -6780,16 +6880,16 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>SYR</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204">
@@ -6800,16 +6900,16 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>TWN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205">
@@ -6820,16 +6920,16 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="206">
@@ -6840,16 +6940,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="207">
@@ -6860,16 +6960,16 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="208">
@@ -6880,16 +6980,16 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209">
@@ -6900,16 +7000,16 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210">
@@ -6920,16 +7020,16 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="211">
@@ -6940,16 +7040,16 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="212">
@@ -6960,16 +7060,16 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213">
@@ -6980,16 +7080,16 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214">
@@ -7000,16 +7100,16 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="215">
@@ -7020,16 +7120,16 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="216">
@@ -7040,16 +7140,16 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217">
@@ -7060,16 +7160,16 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218">
@@ -7080,16 +7180,16 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219">
@@ -7100,16 +7200,16 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="220">
@@ -7120,16 +7220,16 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="221">
@@ -7140,16 +7240,16 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222">
@@ -7160,16 +7260,16 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>VAT</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Vatican City</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="223">
@@ -7180,16 +7280,16 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224">
@@ -7200,16 +7300,16 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VAT</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Vatican City</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="225">
@@ -7220,16 +7320,16 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="226">
@@ -7240,16 +7340,16 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="227">
@@ -7260,56 +7360,56 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>prog_languages</t>
+          <t>countries</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>prog_languages</t>
+          <t>countries</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>javascript</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="230">
@@ -7320,16 +7420,16 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>cpp</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>C++</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -7340,16 +7440,16 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>javascript</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -7360,16 +7460,16 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>csharp</t>
+          <t>cpp</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>C++</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -7380,16 +7480,16 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>dart</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Dart (Flutter)</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234">
@@ -7400,16 +7500,16 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>csharp</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Go (Golang)</t>
+          <t>C#</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
@@ -7420,16 +7520,16 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>rust</t>
+          <t>dart</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Rust</t>
+          <t>Dart (Flutter)</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
@@ -7440,16 +7540,16 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>swift</t>
+          <t>go</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>Go (Golang)</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -7460,16 +7560,16 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>typescript</t>
+          <t>rust</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>TypeScript</t>
+          <t>Rust</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238">
@@ -7480,16 +7580,16 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>haskell</t>
+          <t>swift</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Haskell</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239">
@@ -7500,16 +7600,16 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ruby</t>
+          <t>typescript</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Ruby</t>
+          <t>TypeScript</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
@@ -7520,16 +7620,16 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>bash</t>
+          <t>haskell</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Bash</t>
+          <t>Haskell</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241">
@@ -7540,16 +7640,16 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>julia</t>
+          <t>ruby</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Ruby</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242">
@@ -7560,16 +7660,16 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>css</t>
+          <t>bash</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>Bash</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
@@ -7580,16 +7680,16 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>sql</t>
+          <t>julia</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>SQL</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
@@ -7600,16 +7700,16 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>sas</t>
+          <t>css</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245">
@@ -7620,16 +7720,16 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>matlab</t>
+          <t>sql</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Matlab</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246">
@@ -7640,16 +7740,16 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>stata</t>
+          <t>sas</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>STATA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247">
@@ -7660,16 +7760,16 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>spss</t>
+          <t>matlab</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>SPSS</t>
+          <t>Matlab</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
@@ -7680,16 +7780,16 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>nvivo</t>
+          <t>stata</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>NVivo</t>
+          <t>STATA</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249">
@@ -7700,16 +7800,16 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>maxqda</t>
+          <t>spss</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MAXQDA</t>
+          <t>SPSS</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -7720,56 +7820,56 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>nvivo</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>None of the above</t>
+          <t>NVivo</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>git_exp</t>
+          <t>prog_languages</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>maxqda</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Never used Git</t>
+          <t>MAXQDA</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>git_exp</t>
+          <t>prog_languages</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>occasional</t>
+          <t>none</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Used occasionally for basic tasks</t>
+          <t>None of the above</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253">
@@ -7780,16 +7880,16 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Used regularly for own projects</t>
+          <t>Never used Git</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -7800,56 +7900,56 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>extensive</t>
+          <t>occasional</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Used extensively for collaborative development</t>
+          <t>Used occasionally for basic tasks</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>github_exp</t>
+          <t>git_exp</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Never used GitHub</t>
+          <t>Used regularly for own projects</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>github_exp</t>
+          <t>git_exp</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>viewed</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Occasionally viewed/downloaded repositories</t>
+          <t>Used extensively for collaborative development</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -7860,16 +7960,16 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>managed</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Regularly managed own repositories</t>
+          <t>Never used GitHub</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7880,56 +7980,56 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>collab</t>
+          <t>viewed</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Extensively used for collaborative development</t>
+          <t>Occasionally viewed/downloaded repositories</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>data_storage</t>
+          <t>github_exp</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>managed</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Physical notebooks on paper</t>
+          <t>Regularly managed own repositories</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>data_storage</t>
+          <t>github_exp</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>spreadsheet</t>
+          <t>collab</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Spreadsheet-based format (Excel, Google Sheets)</t>
+          <t>Extensively used for collaborative development</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261">
@@ -7940,16 +8040,16 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>machine_readable</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Machine-readable files (CSV, JSON)</t>
+          <t>Physical notebooks on paper</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -7960,16 +8060,16 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>database</t>
+          <t>spreadsheet</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Relational database</t>
+          <t>Spreadsheet-based format (Excel, Google Sheets)</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -7980,16 +8080,16 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>dont_know</t>
+          <t>machine_readable</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Don't know</t>
+          <t>Machine-readable files (CSV, JSON)</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -8000,56 +8100,56 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>no_data</t>
+          <t>database</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>No data to store</t>
+          <t>Relational database</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>doc_writing</t>
+          <t>data_storage</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>word_no_code</t>
+          <t>dont_know</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Word processors without code</t>
+          <t>Don't know</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>doc_writing</t>
+          <t>data_storage</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>word_copy_paste</t>
+          <t>no_data</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Word processors with copy/paste code output</t>
+          <t>No data to store</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267">
@@ -8060,16 +8160,16 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>latex_copy_paste</t>
+          <t>word_no_code</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>LaTeX with copy/paste code output</t>
+          <t>Word processors (e.g., MS Word, Google Docs) without code</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -8080,56 +8180,56 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>literate_prog</t>
+          <t>word_copy_paste</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Literate programming notebooks</t>
+          <t>Word processors (e.g., MS Word, Google Docs) with copy/paste code output</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ide_list</t>
+          <t>doc_writing</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>rstudio</t>
+          <t>latex_copy_paste</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>RStudio</t>
+          <t>LaTeX with copy/paste code output</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ide_list</t>
+          <t>doc_writing</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>positron</t>
+          <t>literate_prog</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Positron</t>
+          <t>Literate programming notebooks (e.g., R Markdown, Quarto, Jupyter)</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271">
@@ -8140,16 +8240,16 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>vscode</t>
+          <t>rstudio</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Visual Studio Code (VS Code)</t>
+          <t>RStudio</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -8160,16 +8260,16 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>pycharm</t>
+          <t>positron</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>PyCharm</t>
+          <t>Positron</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -8180,16 +8280,16 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>jupyterlab</t>
+          <t>vscode</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>JupyterLab</t>
+          <t>Visual Studio Code (VS Code)</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -8200,16 +8300,16 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>jupyter_notebook</t>
+          <t>pycharm</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Jupyter Notebook</t>
+          <t>PyCharm</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275">
@@ -8220,16 +8320,16 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>atom</t>
+          <t>jupyterlab</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Atom</t>
+          <t>JupyterLab</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
@@ -8240,16 +8340,16 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>sublime</t>
+          <t>jupyter_notebook</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Sublime Text</t>
+          <t>Jupyter Notebook</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277">
@@ -8260,16 +8360,16 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>matlab_ide</t>
+          <t>atom</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MATLAB IDE</t>
+          <t>Atom</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
@@ -8280,16 +8380,16 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>emacs</t>
+          <t>sublime</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Emacs</t>
+          <t>Sublime Text</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279">
@@ -8300,16 +8400,16 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>vim</t>
+          <t>matlab_ide</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Vim</t>
+          <t>MATLAB IDE</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
@@ -8320,56 +8420,56 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>emacs</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>None of the above</t>
+          <t>Emacs</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ide_exp</t>
+          <t>ide_list</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>vim</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Never used an IDE</t>
+          <t>Vim</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ide_exp</t>
+          <t>ide_list</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>occasional</t>
+          <t>none</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Occasionally used for basic editing</t>
+          <t>None of the above</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283">
@@ -8380,16 +8480,16 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Regularly used for own projects</t>
+          <t>I have never used an IDE.</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -8400,56 +8500,56 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>extensive</t>
+          <t>occasional</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Extensively used for collaborative development</t>
+          <t>I have occasionally used an IDE for basic code editing or running scripts.</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>cli_exp</t>
+          <t>ide_exp</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>I have never used the command-line interface (Terminal on Mac, Windows Terminal on Windows).</t>
+          <t>I regularly use an IDE for my own projects, taking advantage of features like code completion, debugging, or version control integration.</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>cli_exp</t>
+          <t>ide_exp</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>occasional</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>I have used the CLI occasionally for basic tasks (e.g. navigating folders, running simple commands).</t>
+          <t>I use IDEs extensively for collaborative development, customizing environments, using advanced features (e.g., remote development, extensions/plugins), and optimizing workflow.</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287">
@@ -8460,16 +8560,16 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>I use the CLI regularly for my own projects, including scripting and automating tasks.</t>
+          <t>I have never used the command-line interface (Terminal on Mac, Windows Terminal on Windows).</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -8480,56 +8580,56 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>extensive</t>
+          <t>occasional</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>I use the CLI extensively for advanced workflows, system administration, or integrating with other tools (e.g. SSH, environment management, custom scripts).</t>
+          <t>I have used the CLI occasionally for basic tasks (e.g. navigating folders, running simple commands).</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>llm_tools</t>
+          <t>cli_exp</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>chatgpt</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>ChatGPT (OpenAI)</t>
+          <t>I use the CLI regularly for my own projects, including scripting and automating tasks.</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>llm_tools</t>
+          <t>cli_exp</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>claude</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Claude (Anthropic)</t>
+          <t>I use the CLI extensively for advanced workflows, system administration, or integrating with other tools (e.g. SSH, environment management, custom scripts).</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291">
@@ -8540,16 +8640,16 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>claude_code</t>
+          <t>chatgpt</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Claude Code (Anthropic)</t>
+          <t>ChatGPT (OpenAI)</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -8560,16 +8660,16 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Gemini (Google, formerly Bard)</t>
+          <t>Claude (Anthropic)</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -8580,16 +8680,16 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>notebooklm</t>
+          <t>claude_code</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>NotebookLM (Google)</t>
+          <t>Claude Code (Anthropic)</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -8600,16 +8700,16 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>copilot_ide</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Copilot for IDEs</t>
+          <t>Gemini (Google, formerly Bard)</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295">
@@ -8620,16 +8720,16 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>copilot_365</t>
+          <t>notebooklm</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Copilot for Microsoft 365</t>
+          <t>NotebookLM (Google)</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296">
@@ -8640,16 +8740,16 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>perplexity</t>
+          <t>copilot_ide</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Perplexity AI</t>
+          <t>Copilot for IDEs</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297">
@@ -8660,16 +8760,16 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>llama</t>
+          <t>copilot_365</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Llama (Meta)</t>
+          <t>Copilot for Microsoft 365</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298">
@@ -8680,16 +8780,16 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>perplexity</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Mistral AI</t>
+          <t>Perplexity AI</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
@@ -8700,16 +8800,16 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>llama</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Pi</t>
+          <t>Llama (Meta)</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300">
@@ -8720,16 +8820,16 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>deepseek</t>
+          <t>mistral</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>DeepSeek</t>
+          <t>Mistral AI</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301">
@@ -8740,16 +8840,16 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>bedrock</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Amazon Bedrock</t>
+          <t>Pi</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302">
@@ -8760,16 +8860,16 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>grok</t>
+          <t>deepseek</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>xAI (Grok)</t>
+          <t>DeepSeek</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303">
@@ -8780,16 +8880,16 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>replit</t>
+          <t>bedrock</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Replit AI</t>
+          <t>Amazon Bedrock</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304">
@@ -8800,16 +8900,16 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>phind</t>
+          <t>grok</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Phind</t>
+          <t>xAI (Grok)</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305">
@@ -8820,16 +8920,16 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>tabnine</t>
+          <t>replit</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Tabnine</t>
+          <t>Replit AI</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306">
@@ -8840,16 +8940,16 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>codeium</t>
+          <t>phind</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Codeium</t>
+          <t>Phind</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307">
@@ -8860,16 +8960,16 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>starcoder</t>
+          <t>tabnine</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Starcoder</t>
+          <t>Tabnine</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308">
@@ -8880,16 +8980,16 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>duet</t>
+          <t>codeium</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Google Duet AI</t>
+          <t>Codeium</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309">
@@ -8900,16 +9000,16 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>notion</t>
+          <t>starcoder</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Notion AI</t>
+          <t>Starcoder</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="310">
@@ -8920,16 +9020,16 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>jasper</t>
+          <t>duet</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Google Duet AI</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311">
@@ -8940,16 +9040,16 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>cline</t>
+          <t>notion</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Cline</t>
+          <t>Notion AI</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="312">
@@ -8960,16 +9060,16 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>cursor</t>
+          <t>jasper</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Cursor AI</t>
+          <t>Jasper</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313">
@@ -8980,16 +9080,16 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>magic</t>
+          <t>cline</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Magic AI</t>
+          <t>Cline</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314">
@@ -9000,16 +9100,16 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>zoom</t>
+          <t>cursor</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Zoom AI Companion</t>
+          <t>Cursor AI</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315">
@@ -9020,16 +9120,16 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>elicit</t>
+          <t>magic</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Elicit</t>
+          <t>Magic AI</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316">
@@ -9040,16 +9140,16 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>research_rabbit</t>
+          <t>zoom</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Research Rabbit</t>
+          <t>Zoom AI Companion</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="317">
@@ -9060,16 +9160,16 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>semantic_scholar</t>
+          <t>elicit</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Semantic Scholar AI</t>
+          <t>Elicit</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="318">
@@ -9080,16 +9180,16 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>scisummary</t>
+          <t>research_rabbit</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>SciSummary</t>
+          <t>Research Rabbit</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319">
@@ -9100,16 +9200,16 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>paperpal</t>
+          <t>semantic_scholar</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Paperpal</t>
+          <t>Semantic Scholar AI</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="320">
@@ -9120,16 +9220,16 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>consensus</t>
+          <t>scisummary</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>SciSummary</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321">
@@ -9140,16 +9240,16 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>scite</t>
+          <t>paperpal</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Scite Assistant</t>
+          <t>Paperpal</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="322">
@@ -9160,56 +9260,56 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>scispace</t>
+          <t>consensus</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Scispace Literature Review Tools</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>llm_freq</t>
+          <t>llm_tools</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>scite</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>I have not used any LLMs.</t>
+          <t>Scite Assistant</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>llm_freq</t>
+          <t>llm_tools</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>occasional</t>
+          <t>scispace</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>I use LLMs occasionally when needed (e.g once a week).</t>
+          <t>Scispace Literature Review Tools</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325">
@@ -9220,16 +9320,16 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>I regularly use LLMs to improve efficiency (e.g. once a day).</t>
+          <t>I have not used any LLMs.</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -9240,72 +9340,72 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>rely</t>
+          <t>occasional</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>I rely on LLMs for completion (e.g. several times a day).</t>
+          <t>I use LLMs occasionally when needed (e.g once a week).</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>data_available</t>
+          <t>llm_freq</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I regularly use LLMs to improve efficiency (e.g. once a day).</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>data_available</t>
+          <t>llm_freq</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>rely</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>I rely on LLMs for completion (e.g. several times a day).</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>mentorship</t>
+          <t>data_available</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>mentor</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Yes, as a mentor</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -9315,17 +9415,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>mentorship</t>
+          <t>data_available</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>mentee</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Yes, as a mentee</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -9340,35 +9440,75 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>not_interested</t>
+          <t>mentor</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>No, I am not interested</t>
+          <t>Yes, as a mentor</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>mentee</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Yes, as a mentee</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>not_interested</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>No, I am not interested</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
           <t>yes_only</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B334" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
+      <c r="C334" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D332" t="n">
+      <c r="D334" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9383,7 +9523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9452,34 +9592,68 @@
           <t>allow_choice_duplicates</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>form_description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Pre-course survey: data science for openwashdata 002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ds4owd_precourse_002</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>20250107001</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>${first_name}_${surname}_${today}</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>theme-grid</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Thank you for your interest in this course! Your course instructors are looking forward to meeting you. We will meet on Zoom for 10 modules, starting on Thursday, 11th September, from 14:00 to 16:30 CET.
+Details about the content of the course can be found on the course website: https://ds4owd-002.github.io/website/
+How do I sign up?
+To sign up for the course, please complete the following four steps:
+Step 1: Get an account on GitHub. 
+To set up an account on GitHub, follow these general steps:
+1. Go to the GitHub website at https://github.com/.
+2. Click on the "Sign up" button on the top right corner of the page.
+3. Enter your preferred username, email address, and password in the provided fields. (Find advice on choosing a good GitHub username here: https://happygitwithr.com/github-acct)
+4. Choose whether you want to receive updates and announcements via email.
+5. Complete the verification process by solving a puzzle and entering a verification code sent to your email.
+Step 2: Register for an ORCID iD
+Create your ORCID iD at: https://orcid.org/register
+Step 3: Identify a dataset you want to work with for the capstone project
+This course follows the principle of "open by default". All educational resources are published openly using permissive licenses for reuse. We also apply this principle to the code and data used in the course.
+At the end of the course, you will complete a capstone project, which involves analyzing a dataset of your choice. We encourage you to use data available from your company, government institution, research institute, or other personal sources. However, this requires the data to be shared openly, which may not always be possible if it is sensitive or contains personal information. In such cases, you may use a dataset that has already been published openly.
+The pre-course survey will help us identify who has their own dataset and who does not. We will begin working with data starting from Module 5.
+You can find examples of completed reports from the first iteration of this course here:
+https://openwashdata.org/pages/academy/graduates/
+Step 4: Complete this pre-course survey
+By completing this pre-course survey, you will be registered for the course. We will add you to an email list to keep you informed about the next steps.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ds4owd_precourse_survey.xlsx
+++ b/ds4owd_precourse_survey.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,10 +1916,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Which of these best describes your current usage of the default command-line interface (CLI)?</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Which of these best describes your current usage of the default command-line interface (CLI)? On Mac: The default CLI app is Terminal and the default shell is Zsh (you may also use Bash or other shells). On Windows: The default CLI app is Windows Terminal which can run Command Prompt PowerShell and Bash (via Windows Subsystem for Linux). How would you describe your experience?</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1942,23 +1946,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>On Mac: The default CLI app is Terminal</t>
+          <t>select_multiple llm_tools</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and the default shell is Zsh (you may also use Bash or other shells)</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+          <t>llm_platforms</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Which Large Language Model tools/platforms have you used?</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>appearance</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -1974,24 +1990,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>On Windows: The default CLI app is Windows Terminal</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> which can run Command Prompt</t>
+          <t>llm_usage_intro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PowerShell</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and Bash (via Windows Subsystem for Linux)</t>
-        </is>
-      </c>
+          <t>How frequently do you use Large Language Models for the following tasks?</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -2014,16 +2026,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>How would you describe your experience?"</t>
+          <t>select_one llm_freq</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>llm_summarization</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>For Summarization (e.g., "Summarize this research paper in 200 words.")</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2046,17 +2066,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>select_multiple llm_tools</t>
+          <t>select_one llm_freq</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>llm_platforms</t>
+          <t>llm_translation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Which Large Language Model tools/platforms have you used?</t>
+          <t>Translation (e.g., "Translate this email from English to German.")</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2070,11 +2090,7 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>appearance</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -2090,20 +2106,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>select_one llm_freq</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>llm_usage_intro</t>
+          <t>llm_qa</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>How frequently do you use Large Language Models for the following tasks?</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Question Answering (e.g., "What are the symptoms of vitamin D deficiency?")</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2131,12 +2151,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>llm_summarization</t>
+          <t>llm_conversation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>For Summarization (e.g., "Summarize this research paper in 200 words.")</t>
+          <t>Conversational Assistance / Chatbots (e.g., "Help me with my online order")</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2171,12 +2191,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>llm_translation</t>
+          <t>llm_data_analysis</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Translation (e.g., "Translate this email from English to German.")</t>
+          <t>Data Analysis / Extraction (e.g., "Extract all dates and names from this contract.")</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2211,12 +2231,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>llm_qa</t>
+          <t>llm_content_gen</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Question Answering (e.g., "What are the symptoms of vitamin D deficiency?")</t>
+          <t>Content Generation (e.g. images, videos)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2251,12 +2271,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>llm_conversation</t>
+          <t>llm_learning</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Conversational Assistance / Chatbots (e.g., "Help me with my online order")</t>
+          <t>Learning/Teaching/Tutoring (e.g., "Explain the Pythagorean theorem.")</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2291,12 +2311,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>llm_data_analysis</t>
+          <t>llm_automation</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Data Analysis / Extraction (e.g., "Extract all dates and names from this contract.")</t>
+          <t>Agentic Task Automation (i.e. LLM acts autonomously or semi-autonomously to perform tasks)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2326,24 +2346,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>select_one llm_freq</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>llm_content_gen</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Content Generation (e.g. images, videos)</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>end group</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2366,24 +2374,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>select_one llm_freq</t>
+          <t>begin group</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>llm_learning</t>
+          <t>project_participation</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Learning/Teaching/Tutoring (e.g., "Explain the Pythagorean theorem.")</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>Project and Course Participation</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2406,17 +2410,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>select_one llm_freq</t>
+          <t>text</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>llm_automation</t>
+          <t>learning_goals</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Agentic Task Automation (i.e. LLM acts autonomously or semi-autonomously to perform tasks)</t>
+          <t>What do you want to know or be able to do that you don't know or can't do right now?</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2430,7 +2434,11 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>paragraph</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2446,12 +2454,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>end group</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+          <t>select_one data_available</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>data_availability</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Can you identify a dataset of your own or your organisation that you can use for the capstone project report and share publicly as open data (see details in survey description Step 3)?</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2474,20 +2494,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>begin group</t>
+          <t>select_one mentorship</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>project_participation</t>
+          <t>mentorship_interest</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Project and Course Participation</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>We are launching a mentorship programme that brings together participants with different levels of experience, so they can support and learn from each other in small groups. Are you interested in joining this mentorship programme?</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2510,35 +2534,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>learning_goals</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>What do you want to know or be able to do that you don't know or can't do right now?</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>end group</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>paragraph</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -2554,24 +2562,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>select_one data_available</t>
+          <t>begin group</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>data_availability</t>
+          <t>agreements</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Can you identify a dataset of your own or your organisation that you can use for the capstone project report and share publicly as open data (see details in survey description Step 3)?</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>Agreements and Consent</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2594,25 +2598,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>select_one mentorship</t>
+          <t>select_one yes_only</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mentorship_interest</t>
+          <t>code_conduct</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>We are launching a mentorship programme that brings together participants with different levels of experience, so they can support and learn from each other in small groups. Are you interested in joining this mentorship programme?</t>
+          <t>I acknowledge that I have read and understood the code of conduct for this course, and I commit to complying with its guidelines and principles to ensure a respectful and ethical learning environment for all participants. Available at: https://ds4owd-002.github.io/website/code_of_conduct.html</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>You must acknowledge the Code of Conduct</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2634,13 +2642,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>end group</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>select_one yes_only</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>data_privacy</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>I agree that by submitting this form, I consent to my data being used for course administration and management, accessed only by instructors, securely stored, not shared with third parties, anonymized for reporting, and potentially used for future research to improve the course. For reporting purposes, your personal identifiers (ORCID iD, GitHub username) will be removed from the data. The anonymized data may be used for future research, scientific publications, and analysis to improve the course.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>You must provide consent</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2662,19 +2686,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>begin group</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>agreements</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Agreements and Consent</t>
-        </is>
-      </c>
+          <t>end group</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
@@ -2694,122 +2710,6 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>select_one yes_only</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>code_conduct</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>I acknowledge that I have read and understood the code of conduct for this course, and I commit to complying with its guidelines and principles to ensure a respectful and ethical learning environment for all participants. Available at: https://ds4owd-002.github.io/website/code_of_conduct.html</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>You must acknowledge the Code of Conduct</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>select_one yes_only</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>data_privacy</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>I agree that by submitting this form, I consent to my data being used for course administration and management, accessed only by instructors, securely stored, not shared with third parties, anonymized for reporting, and potentially used for future research to improve the course. For reporting purposes, your personal identifiers (ORCID iD, GitHub username) will be removed from the data. The anonymized data may be used for future research, scientific publications, and analysis to improve the course.</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>You must provide consent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>end group</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ds4owd_precourse_survey.xlsx
+++ b/ds4owd_precourse_survey.xlsx
@@ -9514,7 +9514,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>${first_name}_${surname}_${today}</t>
+          <t>${first_name}_${surname}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>

--- a/ds4owd_precourse_survey.xlsx
+++ b/ds4owd_precourse_survey.xlsx
@@ -9514,7 +9514,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>${first_name}_${surname}</t>
+          <t>ds4owd_precourse_response</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
